--- a/src/main/resources/templates/exportTemplate.xlsx
+++ b/src/main/resources/templates/exportTemplate.xlsx
@@ -17,18 +17,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>{{title}}</t>
   </si>
   <si>
-    <t>月份：{{month}}</t>
-  </si>
-  <si>
     <t>金额单位：万元</t>
   </si>
   <si>
     <t>序号</t>
+  </si>
+  <si>
+    <t>月份</t>
   </si>
   <si>
     <t>部门</t>
@@ -93,6 +93,9 @@
   </si>
   <si>
     <t>{{fe: leftlist t.id</t>
+  </si>
+  <si>
+    <t>t.yf</t>
   </si>
   <si>
     <t>t.bm</t>
@@ -157,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="&quot;￥&quot;* _-#,##0.00;&quot;￥&quot;* \-#,##0.00;&quot;￥&quot;* _-&quot;-&quot;??;@"/>
-    <numFmt numFmtId="177" formatCode="* #,##0.00;* \-#,##0.00;* &quot;-&quot;??;@"/>
-    <numFmt numFmtId="178" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
-    <numFmt numFmtId="179" formatCode="* #,##0;* \-#,##0;* &quot;-&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="&quot;￥&quot;* _-#,##0;&quot;￥&quot;* \-#,##0;&quot;￥&quot;* _-&quot;-&quot;;@"/>
+    <numFmt numFmtId="177" formatCode="&quot;￥&quot;* _-#,##0.00;&quot;￥&quot;* \-#,##0.00;&quot;￥&quot;* _-&quot;-&quot;??;@"/>
+    <numFmt numFmtId="178" formatCode="* #,##0;* \-#,##0;* &quot;-&quot;;@"/>
+    <numFmt numFmtId="179" formatCode="* #,##0.00;* \-#,##0.00;* &quot;-&quot;??;@"/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -455,13 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -718,25 +721,25 @@
   </borders>
   <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="178" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -809,11 +812,11 @@
     <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -917,7 +920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -925,12 +928,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -943,12 +946,18 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,6 +965,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -989,9 +1001,9 @@
   <cellStyles count="113">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="常规 2 2 4" xfId="3"/>
-    <cellStyle name="常规 2 2 2 2" xfId="4"/>
+    <cellStyle name="常规 2 2 2 2" xfId="2"/>
+    <cellStyle name="货币" xfId="3" builtinId="4"/>
+    <cellStyle name="常规 2 2 4" xfId="4"/>
     <cellStyle name="20% - 强调文字颜色 3" xfId="5" builtinId="38"/>
     <cellStyle name="输入" xfId="6" builtinId="20"/>
     <cellStyle name="常规 2 3 3" xfId="7"/>
@@ -1025,10 +1037,10 @@
     <cellStyle name="汇总" xfId="35" builtinId="25"/>
     <cellStyle name="好" xfId="36" builtinId="26"/>
     <cellStyle name="适中" xfId="37" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="38" builtinId="29"/>
-    <cellStyle name="常规 2 2 2 4" xfId="39"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="40" builtinId="46"/>
-    <cellStyle name="常规 8 2" xfId="41"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="38" builtinId="46"/>
+    <cellStyle name="常规 8 2" xfId="39"/>
+    <cellStyle name="强调文字颜色 1" xfId="40" builtinId="29"/>
+    <cellStyle name="常规 2 2 2 4" xfId="41"/>
     <cellStyle name="常规 2 2 2" xfId="42"/>
     <cellStyle name="20% - 强调文字颜色 1" xfId="43" builtinId="30"/>
     <cellStyle name="40% - 强调文字颜色 1" xfId="44" builtinId="31"/>
@@ -1050,8 +1062,8 @@
     <cellStyle name="40% - 强调文字颜色 6" xfId="60" builtinId="51"/>
     <cellStyle name="常规 2 3 2" xfId="61"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="62" builtinId="52"/>
-    <cellStyle name="常规 3 3 4" xfId="63"/>
-    <cellStyle name="常规 2" xfId="64"/>
+    <cellStyle name="常规 2" xfId="63"/>
+    <cellStyle name="常规 3 3 4" xfId="64"/>
     <cellStyle name="常规 2 2 2 3 2" xfId="65"/>
     <cellStyle name="常规 2 2 2 4 2" xfId="66"/>
     <cellStyle name="常规 2 2 3 2" xfId="67"/>
@@ -1089,8 +1101,8 @@
     <cellStyle name="常规 4 3" xfId="99"/>
     <cellStyle name="常规 4 3 2" xfId="100"/>
     <cellStyle name="常规 4 4" xfId="101"/>
-    <cellStyle name="常规 6 4" xfId="102"/>
-    <cellStyle name="常规 4 4 2" xfId="103"/>
+    <cellStyle name="常规 4 4 2" xfId="102"/>
+    <cellStyle name="常规 6 4" xfId="103"/>
     <cellStyle name="常规 5" xfId="104"/>
     <cellStyle name="常规 6 2" xfId="105"/>
     <cellStyle name="常规 6 3" xfId="106"/>
@@ -1403,35 +1415,36 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:U5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="12" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="30.1111111111111" style="2" customWidth="1"/>
     <col min="2" max="2" width="14" style="3" customWidth="1"/>
-    <col min="3" max="4" width="16.6666666666667" style="4" customWidth="1"/>
-    <col min="5" max="5" width="38.1111111111111" style="3" customWidth="1"/>
-    <col min="6" max="6" width="30.8888888888889" style="3" customWidth="1"/>
-    <col min="7" max="9" width="13.1666666666667" style="3" customWidth="1"/>
-    <col min="10" max="10" width="15.6666666666667" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.1666666666667" style="3" customWidth="1"/>
-    <col min="12" max="12" width="13" style="4"/>
-    <col min="13" max="13" width="19.1666666666667" style="4"/>
-    <col min="14" max="14" width="35" style="5" customWidth="1"/>
-    <col min="15" max="15" width="37.5" style="5"/>
-    <col min="16" max="16" width="19.1666666666667" style="5"/>
-    <col min="17" max="17" width="13.8333333333333" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.8333333333333" style="4" customWidth="1"/>
-    <col min="19" max="19" width="28.3333333333333" style="4"/>
-    <col min="20" max="20" width="24.7777777777778" customWidth="1"/>
-    <col min="21" max="21" width="20.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="14" style="4" customWidth="1"/>
+    <col min="4" max="5" width="16.6666666666667" style="3" customWidth="1"/>
+    <col min="6" max="6" width="38.1111111111111" style="4" customWidth="1"/>
+    <col min="7" max="7" width="30.8888888888889" style="4" customWidth="1"/>
+    <col min="8" max="10" width="13.1666666666667" style="4" customWidth="1"/>
+    <col min="11" max="11" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.1666666666667" style="4" customWidth="1"/>
+    <col min="13" max="13" width="13" style="3"/>
+    <col min="14" max="14" width="19.1666666666667" style="3"/>
+    <col min="15" max="15" width="35" style="5" customWidth="1"/>
+    <col min="16" max="16" width="37.5" style="5"/>
+    <col min="17" max="17" width="19.1666666666667" style="5"/>
+    <col min="18" max="18" width="13.8333333333333" style="3" customWidth="1"/>
+    <col min="19" max="19" width="16.8333333333333" style="3" customWidth="1"/>
+    <col min="20" max="20" width="28.3333333333333" style="3"/>
+    <col min="21" max="21" width="24.7777777777778" customWidth="1"/>
+    <col min="22" max="22" width="20.7777777777778" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.75" customHeight="1" spans="1:20">
+    <row r="1" ht="27.75" customHeight="1" spans="1:21">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1454,181 +1467,188 @@
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
     </row>
-    <row r="2" ht="28.5" customHeight="1" spans="1:21">
+    <row r="2" ht="28.5" customHeight="1" spans="1:22">
       <c r="A2" s="7"/>
       <c r="B2" s="8"/>
-      <c r="E2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G2" s="7"/>
+      <c r="C2" s="9"/>
+      <c r="F2" s="10"/>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="16"/>
-      <c r="U2" s="19" t="s">
+      <c r="N2" s="7"/>
+      <c r="O2" s="19"/>
+      <c r="P2" s="19"/>
+      <c r="Q2" s="19"/>
+      <c r="R2" s="19"/>
+      <c r="V2" s="22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" ht="42.75" customHeight="1" spans="1:21">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="L3" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="O3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="20"/>
+      <c r="Q3" s="20"/>
+      <c r="R3" s="20"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
     </row>
-    <row r="3" ht="42.75" customHeight="1" spans="1:20">
-      <c r="A3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
+    <row r="4" ht="56.25" customHeight="1" spans="1:21">
+      <c r="A4" s="11"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="R4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="T4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="U4" s="23" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" ht="56.25" customHeight="1" spans="1:20">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="13"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="O4" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q4" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="R4" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="T4" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:21">
-      <c r="A5" s="15" t="s">
+    <row r="5" s="1" customFormat="1" ht="24" customHeight="1" spans="1:22">
+      <c r="A5" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="18" t="s">
         <v>36</v>
       </c>
       <c r="N5" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="O5" s="18" t="s">
+      <c r="O5" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="P5" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="Q5" s="15" t="s">
+      <c r="Q5" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="R5" s="15" t="s">
+      <c r="R5" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="S5" s="15" t="s">
+      <c r="S5" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="T5" s="21" t="s">
+      <c r="T5" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="U5" s="22"/>
+      <c r="U5" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="V5" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A1:T1"/>
-    <mergeCell ref="N3:T3"/>
+  <mergeCells count="16">
+    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="O3:U3"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
@@ -1642,6 +1662,7 @@
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
